--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1608,6 +1608,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1618,51 +1663,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1974,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2170,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3032,92 +3032,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="27"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="35"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="21"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3126,92 +3126,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="27"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="25"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="27"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3227,6 +3222,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="linux命令大全" sheetId="2" r:id="rId2"/>
     <sheet name="转译字符" sheetId="3" r:id="rId3"/>
+    <sheet name="中行" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="292">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1235,6 +1236,10 @@
   </si>
   <si>
     <t>DataTable的API汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,7 +1343,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,8 +1368,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1552,6 +1563,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1562,7 +1588,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1608,6 +1634,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1647,24 +1685,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1676,6 +1702,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2170,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3032,92 +3067,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="35"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3126,87 +3161,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3222,14 +3262,223 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="39">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="39"/>
+      <c r="B3" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="38">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -1622,6 +1622,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,6 +1640,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1646,51 +1697,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1703,14 +1709,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2226,30 +2226,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -2684,10 +2684,10 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="11"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="C14" s="2" t="s">
@@ -2989,10 +2989,10 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="11"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="3:12" ht="16.5">
       <c r="K32" s="2" t="s">
@@ -3067,92 +3067,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="27"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3161,92 +3161,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="27"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="25"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="27"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3262,6 +3257,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3281,196 +3281,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39">
+      <c r="A2" s="40">
         <v>2017</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="38">
+      <c r="A3" s="40"/>
+      <c r="B3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38">
+      <c r="A4" s="40"/>
+      <c r="B4" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="38">
+      <c r="A5" s="40"/>
+      <c r="B5" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40">
+      <c r="A6" s="40"/>
+      <c r="B6" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="38">
+      <c r="A7" s="40"/>
+      <c r="B7" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="38">
+      <c r="A8" s="40"/>
+      <c r="B8" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="38">
+      <c r="A9" s="40"/>
+      <c r="B9" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="38">
+      <c r="A10" s="40"/>
+      <c r="B10" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40">
+      <c r="A11" s="40"/>
+      <c r="B11" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="38">
+      <c r="A12" s="40"/>
+      <c r="B12" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40">
+      <c r="A13" s="40"/>
+      <c r="B13" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38">
+      <c r="A14" s="40"/>
+      <c r="B14" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38">
+      <c r="A15" s="40"/>
+      <c r="B15" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38">
+      <c r="A16" s="40"/>
+      <c r="B16" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38">
+      <c r="A17" s="40"/>
+      <c r="B17" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38">
+      <c r="A18" s="40"/>
+      <c r="B18" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38">
+      <c r="A19" s="40"/>
+      <c r="B19" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38">
+      <c r="A20" s="40"/>
+      <c r="B20" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38">
+      <c r="A21" s="40"/>
+      <c r="B21" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="38">
+      <c r="A22" s="40"/>
+      <c r="B22" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="38">
+      <c r="A23" s="40"/>
+      <c r="B23" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="38">
+      <c r="A24" s="40"/>
+      <c r="B24" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38">
+      <c r="A25" s="40"/>
+      <c r="B25" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38">
+      <c r="A26" s="40"/>
+      <c r="B26" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38">
+      <c r="A27" s="40"/>
+      <c r="B27" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="38">
+      <c r="A28" s="40"/>
+      <c r="B28" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="38">
+      <c r="A29" s="40"/>
+      <c r="B29" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="38">
+      <c r="A30" s="40"/>
+      <c r="B30" s="11">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="38">
+      <c r="A31" s="40"/>
+      <c r="B31" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="38">
+      <c r="A32" s="40"/>
+      <c r="B32" s="11">
         <v>31</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="linux命令大全" sheetId="2" r:id="rId2"/>
     <sheet name="转译字符" sheetId="3" r:id="rId3"/>
     <sheet name="中行" sheetId="4" r:id="rId4"/>
+    <sheet name="工作内容" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="310">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1240,6 +1241,78 @@
   </si>
   <si>
     <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王旭涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马振兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统日志搜索 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、设备状态查询 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、外联VPN应急查询工具 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、网络团队任务管理工具 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、端口列表展示 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、接入设备信息发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王旭涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、资产信息统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、CMCS纳管跟进平台 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、WWN信息搜索 - 前端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,7 +1661,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1640,6 +1713,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1679,24 +1764,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1711,6 +1784,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3067,92 +3143,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="37"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="37"/>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="38"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3161,87 +3237,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3257,11 +3338,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3273,11 +3349,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3398,7 +3477,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="40"/>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>19</v>
       </c>
     </row>
@@ -3480,5 +3559,137 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="312">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1313,6 +1313,14 @@
   </si>
   <si>
     <t>9、WWN信息搜索 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u011521019/article/details/51301672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openstack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1701,6 +1709,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,6 +1724,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1725,51 +1781,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1784,9 +1795,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2085,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2219,6 +2227,16 @@
         <v>245</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
     <row r="24" spans="1:3">
       <c r="C24" t="s">
         <v>276</v>
@@ -2271,9 +2289,10 @@
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
     <hyperlink ref="C25" r:id="rId5"/>
+    <hyperlink ref="A23" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2302,30 +2321,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="16"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -2760,10 +2779,10 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="C14" s="2" t="s">
@@ -3065,10 +3084,10 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="13"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="3:12" ht="16.5">
       <c r="K32" s="2" t="s">
@@ -3143,92 +3162,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3237,92 +3256,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="27"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="27"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3338,6 +3352,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3366,7 +3385,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40">
+      <c r="A2" s="41">
         <v>2017</v>
       </c>
       <c r="B2" s="11">
@@ -3374,181 +3393,181 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="40"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="40"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="40"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="40"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="40"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="40"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="12">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="40"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="40"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="40"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="40"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="40"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="11">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="11">
         <v>31</v>
       </c>
@@ -3567,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3645,24 +3664,24 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="13" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="13" t="s">
         <v>306</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -12,13 +12,14 @@
     <sheet name="转译字符" sheetId="3" r:id="rId3"/>
     <sheet name="中行" sheetId="4" r:id="rId4"/>
     <sheet name="工作内容" sheetId="5" r:id="rId5"/>
+    <sheet name="QT" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="318">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1321,6 +1322,30 @@
   </si>
   <si>
     <t>openstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海朋2850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanghaipeng2850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingming0623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fanxiuming0623</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1724,6 +1749,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1763,22 +1800,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3162,92 +3187,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3256,87 +3281,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3352,11 +3382,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3711,4 +3736,54 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1">
+        <v>13522380337</v>
+      </c>
+      <c r="D1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2">
+        <v>13522380337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,13 @@
     <sheet name="转译字符" sheetId="3" r:id="rId3"/>
     <sheet name="中行" sheetId="4" r:id="rId4"/>
     <sheet name="工作内容" sheetId="5" r:id="rId5"/>
-    <sheet name="QT" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="312">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1322,30 +1321,6 @@
   </si>
   <si>
     <t>openstack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海朋2850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wanghaipeng2850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mingming0623</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fanxiuming0623</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1749,6 +1724,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,51 +1779,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2118,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3187,92 +3162,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3281,92 +3256,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3382,6 +3352,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3611,9 +3586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3736,54 +3709,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1">
-        <v>13522380337</v>
-      </c>
-      <c r="D1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2">
-        <v>13522380337</v>
-      </c>
-      <c r="D2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="315">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1321,6 +1321,18 @@
   </si>
   <si>
     <t>openstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、前端实现表格导出Excel功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1724,6 +1736,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1763,22 +1787,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3162,92 +3174,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3256,87 +3268,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3352,11 +3369,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3366,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3378,199 +3390,289 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="41">
         <v>2017</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="41"/>
       <c r="B3" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="41"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="41"/>
       <c r="B5" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="41"/>
       <c r="B6" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="41"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="41"/>
       <c r="B8" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="41"/>
       <c r="B9" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="41"/>
       <c r="B10" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="41"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="41"/>
       <c r="B12" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="41"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="41"/>
       <c r="B14" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="41"/>
       <c r="B15" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="41"/>
       <c r="B16" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="41"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="41"/>
       <c r="B18" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="41"/>
       <c r="B19" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="41"/>
       <c r="B20" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="41"/>
       <c r="B21" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="41"/>
       <c r="B22" s="11">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="41"/>
       <c r="B23" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="41"/>
       <c r="B24" s="11">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="41"/>
       <c r="B25" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="41"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="41"/>
       <c r="B27" s="11">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="41"/>
       <c r="B28" s="11">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="41"/>
       <c r="B29" s="11">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="41"/>
       <c r="B30" s="11">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="41"/>
       <c r="B31" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="41"/>
       <c r="B32" s="11">
         <v>31</v>
       </c>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3584,9 +3686,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3705,6 +3809,17 @@
         <v>294</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1332,7 +1332,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1736,6 +1736,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1746,51 +1791,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3174,92 +3174,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3268,92 +3268,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3369,6 +3364,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3380,7 +3380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3688,9 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3810,13 +3808,13 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>314</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="316">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,6 +1333,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、查看设备ZONE前端页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1736,6 +1740,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1775,22 +1791,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3174,92 +3178,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3268,87 +3272,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3364,11 +3373,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3381,7 +3385,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3487,7 +3491,7 @@
       <c r="B11" s="12">
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>10</v>
       </c>
     </row>
@@ -3686,9 +3690,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3818,6 +3824,17 @@
         <v>314</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="318">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,7 +1336,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10、查看设备ZONE前端页面</t>
+    <t>11、查看设备ZONE前端页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、系统搜索前端页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、接入设备前端页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3384,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3536,7 +3544,7 @@
       <c r="B16" s="11">
         <v>15</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>15</v>
       </c>
     </row>
@@ -3545,7 +3553,7 @@
       <c r="B17" s="12">
         <v>16</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3690,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3831,7 +3839,29 @@
       <c r="B12" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>306</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -1748,6 +1748,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,51 +1803,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3186,92 +3186,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3280,92 +3280,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3381,6 +3376,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3701,7 +3701,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3850,8 +3850,8 @@
       <c r="B13" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>306</v>
+      <c r="C13" s="11" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:3">

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1748,6 +1748,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1787,22 +1799,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3186,92 +3186,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3280,87 +3280,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3376,11 +3381,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3598,7 +3598,7 @@
       <c r="B22" s="11">
         <v>21</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="12">
         <v>21</v>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -1748,6 +1748,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,51 +1803,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3186,92 +3186,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3280,92 +3280,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3381,6 +3376,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3607,7 +3607,7 @@
       <c r="B23" s="11">
         <v>22</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="12">
         <v>22</v>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       <c r="B24" s="11">
         <v>23</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="12">
         <v>23</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,11 +1340,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13、系统搜索前端页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、接入设备前端页面</t>
+    <t>12、接入设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、系统搜索页面 - 前端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1748,6 +1748,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1787,22 +1799,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,9 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3186,92 +3184,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3280,87 +3278,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3376,11 +3379,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,9 +3390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3652,7 +3648,7 @@
       <c r="B28" s="11">
         <v>27</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="12">
         <v>27</v>
       </c>
     </row>
@@ -3701,7 +3697,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3845,7 +3841,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>313</v>
@@ -3856,7 +3852,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>296</v>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="中行" sheetId="4" r:id="rId4"/>
     <sheet name="工作内容" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">中行!$A$1:$C$32</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="320">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1345,6 +1348,14 @@
   </si>
   <si>
     <t>13、系统搜索页面 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1825,7 +1836,16 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -2117,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3388,9 +3408,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3398,16 +3418,19 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>318</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="41">
         <v>2017</v>
       </c>
@@ -3417,8 +3440,11 @@
       <c r="C2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="41"/>
       <c r="B3" s="11">
         <v>2</v>
@@ -3426,8 +3452,11 @@
       <c r="C3" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="41"/>
       <c r="B4" s="11">
         <v>3</v>
@@ -3435,8 +3464,11 @@
       <c r="C4" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="41"/>
       <c r="B5" s="11">
         <v>4</v>
@@ -3444,8 +3476,11 @@
       <c r="C5" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="41"/>
       <c r="B6" s="12">
         <v>5</v>
@@ -3453,8 +3488,11 @@
       <c r="C6" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="41"/>
       <c r="B7" s="11">
         <v>6</v>
@@ -3462,8 +3500,11 @@
       <c r="C7" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="41"/>
       <c r="B8" s="11">
         <v>7</v>
@@ -3471,8 +3512,11 @@
       <c r="C8" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="41"/>
       <c r="B9" s="11">
         <v>8</v>
@@ -3480,8 +3524,11 @@
       <c r="C9" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="41"/>
       <c r="B10" s="11">
         <v>9</v>
@@ -3489,8 +3536,11 @@
       <c r="C10" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="41"/>
       <c r="B11" s="12">
         <v>10</v>
@@ -3498,8 +3548,11 @@
       <c r="C11" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="41"/>
       <c r="B12" s="11">
         <v>11</v>
@@ -3507,8 +3560,11 @@
       <c r="C12" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="41"/>
       <c r="B13" s="12">
         <v>12</v>
@@ -3516,8 +3572,11 @@
       <c r="C13" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="41"/>
       <c r="B14" s="11">
         <v>13</v>
@@ -3525,8 +3584,11 @@
       <c r="C14" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="41"/>
       <c r="B15" s="11">
         <v>14</v>
@@ -3534,8 +3596,11 @@
       <c r="C15" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="41"/>
       <c r="B16" s="11">
         <v>15</v>
@@ -3543,8 +3608,11 @@
       <c r="C16" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="41"/>
       <c r="B17" s="12">
         <v>16</v>
@@ -3552,8 +3620,11 @@
       <c r="C17" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="41"/>
       <c r="B18" s="12">
         <v>17</v>
@@ -3561,8 +3632,11 @@
       <c r="C18" s="11">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="41"/>
       <c r="B19" s="11">
         <v>18</v>
@@ -3570,8 +3644,11 @@
       <c r="C19" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="41"/>
       <c r="B20" s="12">
         <v>19</v>
@@ -3579,8 +3656,11 @@
       <c r="C20" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="41"/>
       <c r="B21" s="11">
         <v>20</v>
@@ -3588,8 +3668,11 @@
       <c r="C21" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="41"/>
       <c r="B22" s="11">
         <v>21</v>
@@ -3597,8 +3680,11 @@
       <c r="C22" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="41"/>
       <c r="B23" s="11">
         <v>22</v>
@@ -3606,8 +3692,11 @@
       <c r="C23" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="41"/>
       <c r="B24" s="11">
         <v>23</v>
@@ -3615,8 +3704,11 @@
       <c r="C24" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="41"/>
       <c r="B25" s="11">
         <v>24</v>
@@ -3624,8 +3716,11 @@
       <c r="C25" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="41"/>
       <c r="B26" s="11">
         <v>25</v>
@@ -3633,8 +3728,11 @@
       <c r="C26" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="41"/>
       <c r="B27" s="11">
         <v>26</v>
@@ -3642,8 +3740,11 @@
       <c r="C27" s="11">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="41"/>
       <c r="B28" s="11">
         <v>27</v>
@@ -3651,36 +3752,51 @@
       <c r="C28" s="12">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="41"/>
       <c r="B29" s="11">
         <v>28</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="41"/>
       <c r="B30" s="11">
         <v>29</v>
       </c>
       <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="41"/>
       <c r="B31" s="11">
         <v>30</v>
       </c>
       <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="41"/>
       <c r="B32" s="11">
         <v>31</v>
       </c>
       <c r="C32" s="11"/>
+      <c r="D32" s="11">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="321">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,6 +1356,10 @@
   </si>
   <si>
     <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、设备资产信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1836,16 +1840,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -2137,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3410,7 +3405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3500,7 +3497,7 @@
       <c r="C7" s="11">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>6</v>
       </c>
     </row>
@@ -3524,7 +3521,7 @@
       <c r="C9" s="12">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>8</v>
       </c>
     </row>
@@ -3536,7 +3533,7 @@
       <c r="C10" s="11">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>9</v>
       </c>
     </row>
@@ -3810,10 +3807,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C13" sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3962,8 +3959,8 @@
       <c r="B13" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>294</v>
+      <c r="C13" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3974,6 +3971,17 @@
         <v>296</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>306</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -1763,6 +1763,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1773,51 +1818,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3199,92 +3199,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3293,92 +3293,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3394,6 +3389,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3405,9 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3617,7 +3615,7 @@
       <c r="C17" s="12">
         <v>16</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>16</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="329">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1295,71 +1295,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>王旭涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、资产信息统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、CMCS纳管跟进平台 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、WWN信息搜索 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u011521019/article/details/51301672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、前端实现表格导出Excel功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、查看设备ZONE前端页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、接入设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、系统搜索页面 - 前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、设备资产信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、在线选课系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马振兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、CMCS纳管跟进平台添加图表功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、服务器管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6、接入设备信息发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王旭涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、资产信息统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、CMCS纳管跟进平台 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、WWN信息搜索 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/u011521019/article/details/51301672</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openstack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、前端实现表格导出Excel功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李媛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、查看设备ZONE前端页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、接入设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、系统搜索页面 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、设备资产信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1763,6 +1795,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1802,22 +1846,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2266,12 +2298,12 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3199,92 +3231,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3293,87 +3325,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3389,11 +3426,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3405,7 +3437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3419,10 +3453,10 @@
         <v>291</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3699,7 +3733,7 @@
       <c r="C24" s="12">
         <v>23</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <v>23</v>
       </c>
     </row>
@@ -3711,7 +3745,7 @@
       <c r="C25" s="11">
         <v>24</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <v>24</v>
       </c>
     </row>
@@ -3805,10 +3839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3885,30 +3919,30 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>306</v>
+      <c r="A7" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>298</v>
@@ -3919,10 +3953,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>294</v>
@@ -3930,18 +3964,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>296</v>
@@ -3951,36 +3985,69 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>313</v>
+      <c r="A13" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>306</v>
+      <c r="C14" s="11" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>306</v>
+      <c r="C15" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1795,6 +1795,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1805,51 +1850,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3231,92 +3231,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3325,92 +3325,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3426,6 +3421,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,9 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3781,7 +3779,7 @@
       <c r="C28" s="12">
         <v>27</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <v>27</v>
       </c>
     </row>
@@ -3793,7 +3791,7 @@
       <c r="C29" s="12">
         <v>28</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <v>28</v>
       </c>
     </row>
@@ -3841,7 +3839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -1795,6 +1795,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1834,22 +1846,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3231,92 +3231,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3325,87 +3325,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3421,11 +3426,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,7 +3437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3801,7 +3803,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>29</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -1795,6 +1795,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1805,51 +1850,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3231,92 +3231,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3325,92 +3325,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3426,6 +3421,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3813,7 +3813,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>30</v>
       </c>
     </row>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="329">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1795,6 +1795,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1834,22 +1846,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3231,92 +3231,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3325,87 +3325,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3421,11 +3426,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3435,11 +3435,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3447,7 +3445,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>291</v>
@@ -3458,8 +3456,11 @@
       <c r="D1" s="11" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="41">
         <v>2017</v>
       </c>
@@ -3472,8 +3473,11 @@
       <c r="D2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="41"/>
       <c r="B3" s="11">
         <v>2</v>
@@ -3484,8 +3488,11 @@
       <c r="D3" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="41"/>
       <c r="B4" s="11">
         <v>3</v>
@@ -3496,8 +3503,11 @@
       <c r="D4" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="41"/>
       <c r="B5" s="11">
         <v>4</v>
@@ -3508,8 +3518,11 @@
       <c r="D5" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="41"/>
       <c r="B6" s="12">
         <v>5</v>
@@ -3520,8 +3533,11 @@
       <c r="D6" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="41"/>
       <c r="B7" s="11">
         <v>6</v>
@@ -3532,8 +3548,11 @@
       <c r="D7" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="41"/>
       <c r="B8" s="11">
         <v>7</v>
@@ -3544,8 +3563,11 @@
       <c r="D8" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="41"/>
       <c r="B9" s="11">
         <v>8</v>
@@ -3556,8 +3578,11 @@
       <c r="D9" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="41"/>
       <c r="B10" s="11">
         <v>9</v>
@@ -3568,8 +3593,11 @@
       <c r="D10" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="41"/>
       <c r="B11" s="12">
         <v>10</v>
@@ -3580,8 +3608,11 @@
       <c r="D11" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="41"/>
       <c r="B12" s="11">
         <v>11</v>
@@ -3592,8 +3623,11 @@
       <c r="D12" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="41"/>
       <c r="B13" s="12">
         <v>12</v>
@@ -3604,8 +3638,11 @@
       <c r="D13" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="41"/>
       <c r="B14" s="11">
         <v>13</v>
@@ -3616,8 +3653,11 @@
       <c r="D14" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="41"/>
       <c r="B15" s="11">
         <v>14</v>
@@ -3628,8 +3668,11 @@
       <c r="D15" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="41"/>
       <c r="B16" s="11">
         <v>15</v>
@@ -3640,8 +3683,11 @@
       <c r="D16" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="41"/>
       <c r="B17" s="12">
         <v>16</v>
@@ -3652,8 +3698,11 @@
       <c r="D17" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="41"/>
       <c r="B18" s="12">
         <v>17</v>
@@ -3664,8 +3713,11 @@
       <c r="D18" s="11">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="41"/>
       <c r="B19" s="11">
         <v>18</v>
@@ -3676,8 +3728,11 @@
       <c r="D19" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="41"/>
       <c r="B20" s="12">
         <v>19</v>
@@ -3688,8 +3743,11 @@
       <c r="D20" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="41"/>
       <c r="B21" s="11">
         <v>20</v>
@@ -3700,8 +3758,11 @@
       <c r="D21" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="41"/>
       <c r="B22" s="11">
         <v>21</v>
@@ -3712,8 +3773,11 @@
       <c r="D22" s="11">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="41"/>
       <c r="B23" s="11">
         <v>22</v>
@@ -3724,8 +3788,11 @@
       <c r="D23" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="41"/>
       <c r="B24" s="11">
         <v>23</v>
@@ -3736,8 +3803,11 @@
       <c r="D24" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="41"/>
       <c r="B25" s="11">
         <v>24</v>
@@ -3748,8 +3818,11 @@
       <c r="D25" s="12">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="41"/>
       <c r="B26" s="11">
         <v>25</v>
@@ -3760,8 +3833,11 @@
       <c r="D26" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="41"/>
       <c r="B27" s="11">
         <v>26</v>
@@ -3772,8 +3848,11 @@
       <c r="D27" s="11">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="41"/>
       <c r="B28" s="11">
         <v>27</v>
@@ -3784,8 +3863,11 @@
       <c r="D28" s="12">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="41"/>
       <c r="B29" s="11">
         <v>28</v>
@@ -3796,8 +3878,11 @@
       <c r="D29" s="12">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="41"/>
       <c r="B30" s="11">
         <v>29</v>
@@ -3806,8 +3891,11 @@
       <c r="D30" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="41"/>
       <c r="B31" s="11">
         <v>30</v>
@@ -3816,8 +3904,11 @@
       <c r="D31" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="41"/>
       <c r="B32" s="11">
         <v>31</v>
@@ -3826,6 +3917,7 @@
       <c r="D32" s="11">
         <v>31</v>
       </c>
+      <c r="E32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="343">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1247,151 +1247,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u011521019/article/details/51301672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王旭涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马振兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、系统日志搜索 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、设备状态查询 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、外联VPN应急查询工具 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、网络团队任务管理工具 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、端口列表展示 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王旭涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、资产信息统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、CMCS纳管跟进平台 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、WWN信息搜索 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/u011521019/article/details/51301672</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openstack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、前端实现表格导出Excel功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李媛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、查看设备ZONE前端页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、接入设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、系统搜索页面 - 前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、设备资产信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李媛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15、在线选课系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马振兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16、CMCS纳管跟进平台添加图表功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17、服务器管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、接入设备信息发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王旭涛</t>
+  </si>
+  <si>
+    <t>资产信息统计</t>
+  </si>
+  <si>
+    <t>查看设备ZONE前端页面</t>
+  </si>
+  <si>
+    <t>在线选课系统</t>
+  </si>
+  <si>
+    <t>CMCS纳管跟进平台添加图表功能</t>
+  </si>
+  <si>
+    <t>服务器管理系统</t>
+  </si>
+  <si>
+    <t>第一阶段</t>
+  </si>
+  <si>
+    <t>第二阶段</t>
+  </si>
+  <si>
+    <t>第三阶段</t>
+  </si>
+  <si>
+    <t>第四阶段</t>
+  </si>
+  <si>
+    <t>第五阶段</t>
+  </si>
+  <si>
+    <t>第六阶段</t>
+  </si>
+  <si>
+    <t>系统日志搜索</t>
+  </si>
+  <si>
+    <t>设备状态查询</t>
+  </si>
+  <si>
+    <t>网络团队任务管理工具</t>
+  </si>
+  <si>
+    <t>WWN信息搜索</t>
+  </si>
+  <si>
+    <t>系统搜索页面</t>
+  </si>
+  <si>
+    <t>第七阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十五阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十六阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口列表展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外联VPN应急查询工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入设备信息发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMCS纳管跟进平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端实现表格导出Excel功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备资产信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十八阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等级页面重构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1740,7 +1779,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1783,6 +1822,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,6 +1908,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2298,12 +2349,12 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2390,30 +2441,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="17"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -2848,10 +2899,10 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="C14" s="2" t="s">
@@ -3153,10 +3204,10 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="14"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="3:12" ht="16.5">
       <c r="K32" s="2" t="s">
@@ -3231,92 +3282,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3325,84 +3376,84 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3437,7 +3488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3451,17 +3502,17 @@
         <v>291</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="41">
+      <c r="A2" s="42">
         <v>2017</v>
       </c>
       <c r="B2" s="11">
@@ -3478,7 +3529,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="11">
         <v>2</v>
       </c>
@@ -3493,7 +3544,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
@@ -3508,7 +3559,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="11">
         <v>4</v>
       </c>
@@ -3523,7 +3574,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -3538,7 +3589,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
@@ -3553,7 +3604,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="11">
         <v>7</v>
       </c>
@@ -3568,7 +3619,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="11">
         <v>8</v>
       </c>
@@ -3583,7 +3634,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="11">
         <v>9</v>
       </c>
@@ -3598,7 +3649,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -3613,7 +3664,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="11">
         <v>11</v>
       </c>
@@ -3628,7 +3679,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -3643,7 +3694,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="11">
         <v>13</v>
       </c>
@@ -3658,7 +3709,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="11">
         <v>14</v>
       </c>
@@ -3673,7 +3724,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="11">
         <v>15</v>
       </c>
@@ -3688,7 +3739,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
@@ -3703,7 +3754,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="12">
         <v>17</v>
       </c>
@@ -3718,7 +3769,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="11">
         <v>18</v>
       </c>
@@ -3733,7 +3784,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="12">
         <v>19</v>
       </c>
@@ -3748,7 +3799,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="11">
         <v>20</v>
       </c>
@@ -3763,7 +3814,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="11">
         <v>21</v>
       </c>
@@ -3778,7 +3829,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="11">
         <v>22</v>
       </c>
@@ -3793,7 +3844,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="11">
         <v>23</v>
       </c>
@@ -3808,7 +3859,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="11">
         <v>24</v>
       </c>
@@ -3823,7 +3874,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="41"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
@@ -3838,7 +3889,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="41"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="11">
         <v>26</v>
       </c>
@@ -3853,7 +3904,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="11">
         <v>27</v>
       </c>
@@ -3868,7 +3919,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="11">
         <v>28</v>
       </c>
@@ -3883,7 +3934,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="11">
         <v>29</v>
       </c>
@@ -3896,7 +3947,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="11">
         <v>30</v>
       </c>
@@ -3909,7 +3960,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="11">
         <v>31</v>
       </c>
@@ -3931,219 +3982,287 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="14">
+        <v>42649</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42666</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="14">
+        <v>42679</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="14">
+        <v>42705</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="14">
+        <v>42719</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="14">
+        <v>42809</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="14">
+        <v>42755</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="14">
+        <v>42760</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="14">
+        <v>42755</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="14">
+        <v>42750</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="14">
+        <v>42789</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="14">
+        <v>42804</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="14">
+        <v>42814</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>305</v>
+      <c r="C18" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="14">
+        <v>42832</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="343">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1299,138 +1299,139 @@
     <t>在线选课系统</t>
   </si>
   <si>
+    <t>服务器管理系统</t>
+  </si>
+  <si>
+    <t>第一阶段</t>
+  </si>
+  <si>
+    <t>第二阶段</t>
+  </si>
+  <si>
+    <t>第三阶段</t>
+  </si>
+  <si>
+    <t>第四阶段</t>
+  </si>
+  <si>
+    <t>第五阶段</t>
+  </si>
+  <si>
+    <t>第六阶段</t>
+  </si>
+  <si>
+    <t>系统日志搜索</t>
+  </si>
+  <si>
+    <t>设备状态查询</t>
+  </si>
+  <si>
+    <t>网络团队任务管理工具</t>
+  </si>
+  <si>
+    <t>WWN信息搜索</t>
+  </si>
+  <si>
+    <t>系统搜索页面</t>
+  </si>
+  <si>
+    <t>第七阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十五阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十六阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口列表展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外联VPN应急查询工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入设备信息发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMCS纳管跟进平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端实现表格导出Excel功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备资产信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十八阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等级页面重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CMCS纳管跟进平台添加图表功能</t>
-  </si>
-  <si>
-    <t>服务器管理系统</t>
-  </si>
-  <si>
-    <t>第一阶段</t>
-  </si>
-  <si>
-    <t>第二阶段</t>
-  </si>
-  <si>
-    <t>第三阶段</t>
-  </si>
-  <si>
-    <t>第四阶段</t>
-  </si>
-  <si>
-    <t>第五阶段</t>
-  </si>
-  <si>
-    <t>第六阶段</t>
-  </si>
-  <si>
-    <t>系统日志搜索</t>
-  </si>
-  <si>
-    <t>设备状态查询</t>
-  </si>
-  <si>
-    <t>网络团队任务管理工具</t>
-  </si>
-  <si>
-    <t>WWN信息搜索</t>
-  </si>
-  <si>
-    <t>系统搜索页面</t>
-  </si>
-  <si>
-    <t>第七阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第九阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十一阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十三阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十四阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十五阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十六阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十七阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接入设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十二阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口列表展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外联VPN应急查询工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接入设备信息发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMCS纳管跟进平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端实现表格导出Excel功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备资产信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>---------</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十八阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等级页面重构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1825,6 +1826,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,6 +1847,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1849,51 +1904,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1908,15 +1918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2441,30 +2442,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="18"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -2899,10 +2900,10 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="C14" s="2" t="s">
@@ -3204,10 +3205,10 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="3:12" ht="16.5">
       <c r="K32" s="2" t="s">
@@ -3282,92 +3283,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="34" t="s">
         <v>254</v>
       </c>
       <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="31"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="31"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3376,92 +3377,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="24"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="29"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="31"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="34" t="s">
         <v>269</v>
       </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="29"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="29"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="31"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3477,6 +3473,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3488,7 +3489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3512,7 +3515,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="42">
+      <c r="A2" s="45">
         <v>2017</v>
       </c>
       <c r="B2" s="11">
@@ -3529,7 +3532,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="42"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="11">
         <v>2</v>
       </c>
@@ -3544,7 +3547,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
@@ -3559,7 +3562,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="11">
         <v>4</v>
       </c>
@@ -3574,7 +3577,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -3589,7 +3592,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
@@ -3604,7 +3607,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11">
         <v>7</v>
       </c>
@@ -3619,7 +3622,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11">
         <v>8</v>
       </c>
@@ -3634,7 +3637,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="11">
         <v>9</v>
       </c>
@@ -3649,7 +3652,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -3664,7 +3667,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="11">
         <v>11</v>
       </c>
@@ -3679,7 +3682,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="42"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -3694,7 +3697,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="42"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11">
         <v>13</v>
       </c>
@@ -3709,7 +3712,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="11">
         <v>14</v>
       </c>
@@ -3724,7 +3727,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11">
         <v>15</v>
       </c>
@@ -3739,7 +3742,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
@@ -3754,7 +3757,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="12">
         <v>17</v>
       </c>
@@ -3769,7 +3772,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11">
         <v>18</v>
       </c>
@@ -3784,7 +3787,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="42"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="12">
         <v>19</v>
       </c>
@@ -3799,7 +3802,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="11">
         <v>20</v>
       </c>
@@ -3814,7 +3817,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="11">
         <v>21</v>
       </c>
@@ -3829,7 +3832,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="11">
         <v>22</v>
       </c>
@@ -3844,7 +3847,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="11">
         <v>23</v>
       </c>
@@ -3859,7 +3862,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="42"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="11">
         <v>24</v>
       </c>
@@ -3874,7 +3877,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
@@ -3889,7 +3892,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11">
         <v>26</v>
       </c>
@@ -3904,7 +3907,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="42"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11">
         <v>27</v>
       </c>
@@ -3919,7 +3922,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11">
         <v>28</v>
       </c>
@@ -3934,7 +3937,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="11">
         <v>29</v>
       </c>
@@ -3947,7 +3950,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="11">
         <v>30</v>
       </c>
@@ -3960,7 +3963,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="11">
         <v>31</v>
       </c>
@@ -3992,7 +3995,7 @@
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4003,19 +4006,19 @@
       <c r="B1" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>339</v>
+      <c r="C1" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="14">
         <v>42649</v>
@@ -4026,10 +4029,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="14">
         <v>42666</v>
@@ -4040,10 +4043,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="14">
         <v>42679</v>
@@ -4054,10 +4057,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" s="14">
         <v>42705</v>
@@ -4068,10 +4071,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6" s="14">
         <v>42719</v>
@@ -4082,10 +4085,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="14">
         <v>42809</v>
@@ -4096,22 +4099,22 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C9" s="14">
         <v>42755</v>
@@ -4122,10 +4125,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" s="14">
         <v>42760</v>
@@ -4136,10 +4139,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C11" s="14">
         <v>42755</v>
@@ -4150,7 +4153,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>304</v>
@@ -4164,10 +4167,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="14">
         <v>42789</v>
@@ -4178,10 +4181,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C14" s="14">
         <v>42804</v>
@@ -4192,10 +4195,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C15" s="14">
         <v>42814</v>
@@ -4206,41 +4209,41 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>340</v>
+      <c r="C16" s="17" t="s">
+        <v>339</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>293</v>
+      <c r="A17" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="14">
+        <v>42830</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>340</v>
+        <v>306</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>339</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>293</v>
@@ -4248,10 +4251,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="C19" s="14">
         <v>42832</v>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="转译字符" sheetId="3" r:id="rId3"/>
     <sheet name="中行" sheetId="4" r:id="rId4"/>
     <sheet name="工作内容" sheetId="5" r:id="rId5"/>
+    <sheet name="周报" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">中行!$A$1:$C$32</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="352">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1432,6 +1433,47 @@
   </si>
   <si>
     <t>CMCS纳管跟进平台添加图表功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中行工作周报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、配合李媛完成高等级前端页面微调
+2、编写服务器管理的服务器信息列表展示页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余服务器的生成报表和查看系统日志页面未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、编写服务器管理系统的物理机新增和修改页面
+2、编写服务器管理系统的虚拟机新增和修改页面
+3、配合冯岩对接选课系统的前后端接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、CMCS纳管系统的页面调整
+2、配合冯岩对接选课系统的前后端接口
+3、设备资产信息图形统计页面修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +1609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1770,6 +1812,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1780,7 +1879,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1835,6 +1934,15 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,6 +1955,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1886,24 +2006,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1918,6 +2026,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2442,30 +2565,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -2900,10 +3023,10 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="C14" s="2" t="s">
@@ -3205,10 +3328,10 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="18"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="3:12" ht="16.5">
       <c r="K32" s="2" t="s">
@@ -3283,92 +3406,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3377,87 +3500,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3473,11 +3601,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3490,7 +3613,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3511,11 +3634,11 @@
         <v>298</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>2017</v>
       </c>
       <c r="B2" s="11">
@@ -3532,7 +3655,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="11">
         <v>2</v>
       </c>
@@ -3547,7 +3670,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
@@ -3562,7 +3685,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="45"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="11">
         <v>4</v>
       </c>
@@ -3577,7 +3700,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="45"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -3592,7 +3715,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="45"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
@@ -3607,7 +3730,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="11">
         <v>7</v>
       </c>
@@ -3622,7 +3745,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="45"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="11">
         <v>8</v>
       </c>
@@ -3637,7 +3760,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="45"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="11">
         <v>9</v>
       </c>
@@ -3652,7 +3775,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="45"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -3667,7 +3790,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="11">
         <v>11</v>
       </c>
@@ -3682,7 +3805,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -3692,12 +3815,12 @@
       <c r="D13" s="11">
         <v>12</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="11">
         <v>13</v>
       </c>
@@ -3707,12 +3830,12 @@
       <c r="D14" s="11">
         <v>13</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="45"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="11">
         <v>14</v>
       </c>
@@ -3722,12 +3845,12 @@
       <c r="D15" s="11">
         <v>14</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="45"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="11">
         <v>15</v>
       </c>
@@ -3742,7 +3865,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="45"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
@@ -3757,7 +3880,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="12">
         <v>17</v>
       </c>
@@ -3772,7 +3895,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="45"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="11">
         <v>18</v>
       </c>
@@ -3787,7 +3910,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="12">
         <v>19</v>
       </c>
@@ -3802,7 +3925,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="11">
         <v>20</v>
       </c>
@@ -3817,7 +3940,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="45"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="11">
         <v>21</v>
       </c>
@@ -3832,7 +3955,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="45"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="11">
         <v>22</v>
       </c>
@@ -3847,7 +3970,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="45"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="11">
         <v>23</v>
       </c>
@@ -3862,7 +3985,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="45"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="11">
         <v>24</v>
       </c>
@@ -3877,7 +4000,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="45"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
@@ -3892,7 +4015,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="45"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="11">
         <v>26</v>
       </c>
@@ -3907,7 +4030,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="11">
         <v>27</v>
       </c>
@@ -3922,7 +4045,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="11">
         <v>28</v>
       </c>
@@ -3937,7 +4060,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="11">
         <v>29</v>
       </c>
@@ -3950,7 +4073,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="11">
         <v>30</v>
       </c>
@@ -3963,7 +4086,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="11">
         <v>31</v>
       </c>
@@ -3987,7 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -4268,4 +4391,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A3" s="19">
+        <v>4.12</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" customHeight="1">
+      <c r="A4" s="19">
+        <v>4.13</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="52"/>
+    </row>
+    <row r="5" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A5" s="19">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C3:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="354">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1474,6 +1474,15 @@
     <t>1、CMCS纳管系统的页面调整
 2、配合冯岩对接选课系统的前后端接口
 3、设备资产信息图形统计页面修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、设备资产信息饼图统计前端调整
+2、编写服务器管理页面批量导入功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余高等级页面添加饼图统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1879,7 +1888,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1955,6 +1964,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1967,51 +2021,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2041,6 +2050,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2339,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3406,92 +3418,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="45"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="46"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="37"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="37"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3500,92 +3512,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="32" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="30"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="37"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="37"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3601,6 +3608,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3612,9 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3890,7 +3900,7 @@
       <c r="D18" s="11">
         <v>17</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>17</v>
       </c>
     </row>
@@ -4395,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4455,10 +4465,40 @@
       </c>
       <c r="C5" s="53"/>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A12" s="19">
+        <v>4.17</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="357">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1483,6 +1483,21 @@
   </si>
   <si>
     <t>剩余高等级页面添加饼图统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、交换机接入信息分析系统字段显示过多问题处理
+2、高等级系统饼图统计前端代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、cmcs纳管页面修改
+2、选课系统代码修改，与后端对接
+3、对接高等级系统饼图代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余选课系统的时间插件兼容性未处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1888,7 +1903,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1964,6 +1979,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2003,24 +2030,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2053,6 +2068,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2351,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3418,92 +3439,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="38"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="45"/>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="29"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="46"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="33"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="29" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="33"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3512,87 +3533,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3608,11 +3634,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3624,7 +3645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4035,7 +4058,7 @@
       <c r="D27" s="11">
         <v>26</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="12">
         <v>26</v>
       </c>
     </row>
@@ -4050,7 +4073,7 @@
       <c r="D28" s="12">
         <v>27</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="12">
         <v>27</v>
       </c>
     </row>
@@ -4405,10 +4428,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4465,40 +4488,80 @@
       </c>
       <c r="C5" s="53"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="54" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="18" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B9" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A12" s="19">
+    <row r="10" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A10" s="19">
         <v>4.17</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>353</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33" customHeight="1">
+      <c r="A15" s="19">
+        <v>4.26</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" customHeight="1">
+      <c r="A16" s="19">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="364">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,12 +1500,40 @@
     <t>剩余选课系统的时间插件兼容性未处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>中行工作周报</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>1、服务器管理系统页面修改
+2、选课功能页面插件bug处理</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、讨论存储网需求</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、CMCS跟进系统前端页面调整
+2、服务器管理系统页面修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、高等级统计页面前端页面微调
+2、服务器管理系统页面修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,6 +1627,12 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1903,7 +1937,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1979,6 +2013,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1991,51 +2070,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2074,6 +2108,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3439,92 +3476,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="45"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="46"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="37"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="37"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3533,92 +3570,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="32" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="30"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="37"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="37"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3634,6 +3666,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3643,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3655,7 +3692,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>291</v>
@@ -3669,8 +3706,11 @@
       <c r="E1" s="11" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="48">
         <v>2017</v>
       </c>
@@ -3686,8 +3726,11 @@
       <c r="E2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="48"/>
       <c r="B3" s="11">
         <v>2</v>
@@ -3701,8 +3744,11 @@
       <c r="E3" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="48"/>
       <c r="B4" s="11">
         <v>3</v>
@@ -3716,8 +3762,11 @@
       <c r="E4" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="48"/>
       <c r="B5" s="11">
         <v>4</v>
@@ -3731,8 +3780,11 @@
       <c r="E5" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="48"/>
       <c r="B6" s="12">
         <v>5</v>
@@ -3746,8 +3798,11 @@
       <c r="E6" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="48"/>
       <c r="B7" s="11">
         <v>6</v>
@@ -3761,8 +3816,11 @@
       <c r="E7" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="48"/>
       <c r="B8" s="11">
         <v>7</v>
@@ -3776,8 +3834,11 @@
       <c r="E8" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="48"/>
       <c r="B9" s="11">
         <v>8</v>
@@ -3791,8 +3852,11 @@
       <c r="E9" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="48"/>
       <c r="B10" s="11">
         <v>9</v>
@@ -3806,8 +3870,11 @@
       <c r="E10" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="48"/>
       <c r="B11" s="12">
         <v>10</v>
@@ -3821,8 +3888,11 @@
       <c r="E11" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="48"/>
       <c r="B12" s="11">
         <v>11</v>
@@ -3836,8 +3906,11 @@
       <c r="E12" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="48"/>
       <c r="B13" s="12">
         <v>12</v>
@@ -3851,8 +3924,11 @@
       <c r="E13" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="48"/>
       <c r="B14" s="11">
         <v>13</v>
@@ -3866,8 +3942,11 @@
       <c r="E14" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="48"/>
       <c r="B15" s="11">
         <v>14</v>
@@ -3881,8 +3960,11 @@
       <c r="E15" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="48"/>
       <c r="B16" s="11">
         <v>15</v>
@@ -3896,8 +3978,11 @@
       <c r="E16" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="48"/>
       <c r="B17" s="12">
         <v>16</v>
@@ -3911,8 +3996,11 @@
       <c r="E17" s="11">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="48"/>
       <c r="B18" s="12">
         <v>17</v>
@@ -3926,8 +4014,11 @@
       <c r="E18" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="48"/>
       <c r="B19" s="11">
         <v>18</v>
@@ -3941,8 +4032,11 @@
       <c r="E19" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="48"/>
       <c r="B20" s="12">
         <v>19</v>
@@ -3956,8 +4050,11 @@
       <c r="E20" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="48"/>
       <c r="B21" s="11">
         <v>20</v>
@@ -3971,8 +4068,11 @@
       <c r="E21" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="48"/>
       <c r="B22" s="11">
         <v>21</v>
@@ -3986,8 +4086,11 @@
       <c r="E22" s="11">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="48"/>
       <c r="B23" s="11">
         <v>22</v>
@@ -4001,8 +4104,11 @@
       <c r="E23" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="48"/>
       <c r="B24" s="11">
         <v>23</v>
@@ -4016,8 +4122,11 @@
       <c r="E24" s="11">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="48"/>
       <c r="B25" s="11">
         <v>24</v>
@@ -4031,8 +4140,11 @@
       <c r="E25" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="48"/>
       <c r="B26" s="11">
         <v>25</v>
@@ -4046,8 +4158,11 @@
       <c r="E26" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="48"/>
       <c r="B27" s="11">
         <v>26</v>
@@ -4061,8 +4176,11 @@
       <c r="E27" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="48"/>
       <c r="B28" s="11">
         <v>27</v>
@@ -4076,8 +4194,11 @@
       <c r="E28" s="12">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="48"/>
       <c r="B29" s="11">
         <v>28</v>
@@ -4091,8 +4212,11 @@
       <c r="E29" s="11">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="48"/>
       <c r="B30" s="11">
         <v>29</v>
@@ -4104,8 +4228,11 @@
       <c r="E30" s="11">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="48"/>
       <c r="B31" s="11">
         <v>30</v>
@@ -4117,8 +4244,11 @@
       <c r="E31" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="48"/>
       <c r="B32" s="11">
         <v>31</v>
@@ -4128,6 +4258,9 @@
         <v>31</v>
       </c>
       <c r="E32" s="11"/>
+      <c r="F32" s="11">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4144,7 +4277,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D6" sqref="D6:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4428,10 +4561,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4555,8 +4688,89 @@
       </c>
       <c r="C16" s="56"/>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="33" customHeight="1">
+      <c r="A21" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="57"/>
+    </row>
+    <row r="22" spans="1:3" ht="33" customHeight="1">
+      <c r="A22" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="57"/>
+    </row>
+    <row r="23" spans="1:3" ht="33" customHeight="1">
+      <c r="A23" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="57"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A28" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28" s="57"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="19">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="57"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="A8:C8"/>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="366">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1526,6 +1526,16 @@
   <si>
     <t>1、高等级统计页面前端页面微调
 2、服务器管理系统页面修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选课功能页面字段添加
+2、san存储自服务页面编写</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、san存储自服务页面编写
+2、讨论san存储自服务系统流程具体需求</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2001,6 +2011,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2013,6 +2026,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2052,24 +2077,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2085,6 +2098,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2100,17 +2116,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2635,30 +2645,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -3093,10 +3103,10 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="C14" s="2" t="s">
@@ -3398,10 +3408,10 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="21"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="3:12" ht="16.5">
       <c r="K32" s="2" t="s">
@@ -3476,92 +3486,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="38"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="29"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="33"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3570,87 +3580,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3666,11 +3681,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3711,7 +3721,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48">
+      <c r="A2" s="49">
         <v>2017</v>
       </c>
       <c r="B2" s="11">
@@ -3731,7 +3741,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="11">
         <v>2</v>
       </c>
@@ -3749,7 +3759,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
@@ -3767,7 +3777,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="11">
         <v>4</v>
       </c>
@@ -3785,7 +3795,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -3803,7 +3813,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
@@ -3821,7 +3831,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="11">
         <v>7</v>
       </c>
@@ -3839,7 +3849,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="11">
         <v>8</v>
       </c>
@@ -3857,7 +3867,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="11">
         <v>9</v>
       </c>
@@ -3875,7 +3885,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -3893,7 +3903,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="11">
         <v>11</v>
       </c>
@@ -3911,7 +3921,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -3924,12 +3934,12 @@
       <c r="E13" s="12">
         <v>12</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="11">
         <v>13</v>
       </c>
@@ -3947,7 +3957,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="11">
         <v>14</v>
       </c>
@@ -3965,7 +3975,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="11">
         <v>15</v>
       </c>
@@ -3983,7 +3993,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
@@ -4001,7 +4011,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="12">
         <v>17</v>
       </c>
@@ -4019,7 +4029,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="11">
         <v>18</v>
       </c>
@@ -4037,7 +4047,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="12">
         <v>19</v>
       </c>
@@ -4055,7 +4065,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="11">
         <v>20</v>
       </c>
@@ -4073,7 +4083,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="11">
         <v>21</v>
       </c>
@@ -4091,7 +4101,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="11">
         <v>22</v>
       </c>
@@ -4109,7 +4119,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="11">
         <v>23</v>
       </c>
@@ -4127,7 +4137,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="11">
         <v>24</v>
       </c>
@@ -4145,7 +4155,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
@@ -4163,7 +4173,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="11">
         <v>26</v>
       </c>
@@ -4181,7 +4191,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="11">
         <v>27</v>
       </c>
@@ -4199,7 +4209,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="11">
         <v>28</v>
       </c>
@@ -4217,7 +4227,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="11">
         <v>29</v>
       </c>
@@ -4233,7 +4243,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="11">
         <v>30</v>
       </c>
@@ -4249,7 +4259,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="11">
         <v>31</v>
       </c>
@@ -4561,10 +4571,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4575,11 +4585,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
@@ -4599,7 +4609,7 @@
       <c r="B3" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4610,7 +4620,7 @@
       <c r="B4" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="1:3" ht="46.5" customHeight="1">
       <c r="A5" s="19">
@@ -4619,14 +4629,14 @@
       <c r="B5" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="55"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
@@ -4651,11 +4661,11 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="18" t="s">
@@ -4675,7 +4685,7 @@
       <c r="B15" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="56" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4686,14 +4696,14 @@
       <c r="B16" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
@@ -4713,7 +4723,7 @@
       <c r="B21" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" ht="33" customHeight="1">
       <c r="A22" s="19">
@@ -4722,7 +4732,7 @@
       <c r="B22" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" ht="33" customHeight="1">
       <c r="A23" s="19">
@@ -4731,14 +4741,14 @@
       <c r="B23" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
@@ -4758,14 +4768,25 @@
       <c r="B28" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C28" s="57"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="A29" s="19">
         <v>5.1100000000000003</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A30" s="19">
+        <v>5.12</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="368">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1252,10 +1252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://blog.csdn.net/u011521019/article/details/51301672</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1276,10 +1272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1297,12 +1289,6 @@
     <t>查看设备ZONE前端页面</t>
   </si>
   <si>
-    <t>在线选课系统</t>
-  </si>
-  <si>
-    <t>服务器管理系统</t>
-  </si>
-  <si>
     <t>第一阶段</t>
   </si>
   <si>
@@ -1417,10 +1403,6 @@
   </si>
   <si>
     <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>---------</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1537,6 +1519,35 @@
     <t>1、san存储自服务页面编写
 2、讨论san存储自服务系统流程具体需求</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、服务器管理系统页面修改
+2、划zone自服务页面编写</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、划zone自服务页面编写和调整</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十九阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线选课系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划zone自服务页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1677,7 +1688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1937,6 +1948,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1947,7 +1971,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2026,6 +2050,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2038,51 +2107,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2121,6 +2145,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2553,12 +2580,12 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3486,92 +3513,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="46"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="47"/>
       <c r="C5" s="48"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="46"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="47"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3580,92 +3607,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="36"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="38"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="36"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="38"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3681,6 +3703,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3693,7 +3720,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3708,16 +3735,16 @@
         <v>291</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4006,7 +4033,7 @@
       <c r="E17" s="11">
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4024,7 +4051,7 @@
       <c r="E18" s="12">
         <v>17</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="12">
         <v>17</v>
       </c>
     </row>
@@ -4042,7 +4069,7 @@
       <c r="E19" s="11">
         <v>18</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="12">
         <v>18</v>
       </c>
     </row>
@@ -4060,7 +4087,7 @@
       <c r="E20" s="11">
         <v>19</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="12">
         <v>19</v>
       </c>
     </row>
@@ -4284,10 +4311,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4300,24 +4327,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C2" s="14">
         <v>42649</v>
@@ -4328,10 +4355,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C3" s="14">
         <v>42666</v>
@@ -4342,10 +4369,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C4" s="14">
         <v>42679</v>
@@ -4356,10 +4383,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C5" s="14">
         <v>42705</v>
@@ -4370,10 +4397,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C6" s="14">
         <v>42719</v>
@@ -4384,36 +4411,36 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C7" s="14">
         <v>42809</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C9" s="14">
         <v>42755</v>
@@ -4424,10 +4451,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C10" s="14">
         <v>42760</v>
@@ -4438,24 +4465,24 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C11" s="14">
         <v>42755</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C12" s="14">
         <v>42750</v>
@@ -4466,10 +4493,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C13" s="14">
         <v>42789</v>
@@ -4480,10 +4507,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C14" s="14">
         <v>42804</v>
@@ -4494,10 +4521,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C15" s="14">
         <v>42814</v>
@@ -4507,25 +4534,25 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>299</v>
+      <c r="A16" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="14">
+        <v>42859</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C17" s="14">
         <v>42830</v>
@@ -4535,30 +4562,44 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>293</v>
+      <c r="A18" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="14">
+        <v>42860</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C19" s="14">
         <v>42832</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" s="14">
+        <v>42877</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4571,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4586,20 +4627,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="51" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" customHeight="1">
@@ -4607,10 +4648,10 @@
         <v>4.12</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="48" customHeight="1">
@@ -4618,7 +4659,7 @@
         <v>4.13</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C4" s="54"/>
     </row>
@@ -4627,26 +4668,26 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C5" s="55"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="50" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36.75" customHeight="1">
@@ -4654,28 +4695,28 @@
         <v>4.17</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="50" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33" customHeight="1">
@@ -4683,10 +4724,10 @@
         <v>4.26</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" customHeight="1">
@@ -4694,26 +4735,26 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C16" s="57"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="50" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="33" customHeight="1">
@@ -4721,7 +4762,7 @@
         <v>5.2</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C21" s="21"/>
     </row>
@@ -4730,7 +4771,7 @@
         <v>5.3</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C22" s="21"/>
     </row>
@@ -4739,26 +4780,26 @@
         <v>5.4</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C23" s="21"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="50" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="38.25" customHeight="1">
@@ -4766,7 +4807,7 @@
         <v>5.9</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C28" s="21"/>
     </row>
@@ -4775,7 +4816,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C29" s="21"/>
     </row>
@@ -4784,12 +4825,64 @@
         <v>5.12</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C30" s="21"/>
     </row>
+    <row r="33" spans="1:3" ht="18" customHeight="1">
+      <c r="A33" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="A35" s="19">
+        <v>5.16</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="19">
+        <v>5.17</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="58"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="19">
+        <v>5.18</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="58"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="19">
+        <v>5.19</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="58"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:C1"/>

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2038,6 +2038,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2050,6 +2053,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2089,24 +2104,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2125,6 +2128,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2132,22 +2144,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2672,30 +2672,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="25"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -3130,10 +3130,10 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="C14" s="2" t="s">
@@ -3435,10 +3435,10 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="22"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" spans="3:12" ht="16.5">
       <c r="K32" s="2" t="s">
@@ -3513,92 +3513,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="30"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="34"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="34"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3607,87 +3607,92 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="32"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="34"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="32"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="32"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="34"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3703,11 +3708,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3719,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3748,7 +3748,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="49">
+      <c r="A2" s="50">
         <v>2017</v>
       </c>
       <c r="B2" s="11">
@@ -3768,7 +3768,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="11">
         <v>2</v>
       </c>
@@ -3786,7 +3786,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
@@ -3804,7 +3804,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="11">
         <v>4</v>
       </c>
@@ -3822,7 +3822,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="12">
         <v>5</v>
       </c>
@@ -3840,7 +3840,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
@@ -3858,7 +3858,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="11">
         <v>7</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="11">
         <v>8</v>
       </c>
@@ -3894,7 +3894,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="11">
         <v>9</v>
       </c>
@@ -3912,7 +3912,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -3930,7 +3930,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="11">
         <v>11</v>
       </c>
@@ -3948,7 +3948,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -3966,7 +3966,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="11">
         <v>13</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="11">
         <v>14</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="11">
         <v>15</v>
       </c>
@@ -4020,7 +4020,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
@@ -4038,7 +4038,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="12">
         <v>17</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="11">
         <v>18</v>
       </c>
@@ -4074,7 +4074,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="12">
         <v>19</v>
       </c>
@@ -4092,7 +4092,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="11">
         <v>20</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="11">
         <v>21</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="11">
         <v>22</v>
       </c>
@@ -4146,7 +4146,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="11">
         <v>23</v>
       </c>
@@ -4159,12 +4159,12 @@
       <c r="E24" s="11">
         <v>23</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="49"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="11">
         <v>24</v>
       </c>
@@ -4182,7 +4182,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="11">
         <v>26</v>
       </c>
@@ -4213,12 +4213,12 @@
       <c r="E27" s="12">
         <v>26</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="11">
         <v>27</v>
       </c>
@@ -4231,12 +4231,12 @@
       <c r="E28" s="12">
         <v>27</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="11">
         <v>28</v>
       </c>
@@ -4254,7 +4254,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="11">
         <v>29</v>
       </c>
@@ -4270,7 +4270,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="49"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="11">
         <v>30</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="49"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="11">
         <v>31</v>
       </c>
@@ -4614,7 +4614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -4626,11 +4626,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
@@ -4650,7 +4650,7 @@
       <c r="B3" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       <c r="B4" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
     </row>
     <row r="5" spans="1:3" ht="46.5" customHeight="1">
       <c r="A5" s="19">
@@ -4670,14 +4670,14 @@
       <c r="B5" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="54"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
@@ -4702,11 +4702,11 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="18" t="s">
@@ -4726,7 +4726,7 @@
       <c r="B15" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="57" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4737,14 +4737,14 @@
       <c r="B16" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="58"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
@@ -4785,11 +4785,11 @@
       <c r="C23" s="21"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
@@ -4830,11 +4830,11 @@
       <c r="C30" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="18" t="s">
@@ -4860,24 +4860,24 @@
       <c r="A36" s="19">
         <v>5.17</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="19">
         <v>5.18</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="58"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="19">
         <v>5.19</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="58"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/lqbz.xlsx
+++ b/lqbz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="中行" sheetId="4" r:id="rId4"/>
     <sheet name="工作内容" sheetId="5" r:id="rId5"/>
     <sheet name="周报" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">中行!$A$1:$C$32</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="371">
   <si>
     <t>http://www.open-open.com/lib/view/open1460134175743.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1549,12 +1550,140 @@
     <t>5月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>instance.web.FormView = instance.web.FormView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">({  //instance.web.FormView为已有组件
+    initialize_content:function(){
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">this._super(this);  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//调用已有组件的原始方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        debugger;  //下下自定义代码块
+        console.log('initialize_content');
+    }
+});</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>instance.web.FormView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">({   //instance.web.FormView为已有组件
+    load_record:function(record){
+        if(this.dataset &amp;&amp; this.dataset.model == "hr.employee"){
+            console.log('initialize_content');
+        }//以上自定义代码块
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return this._super.apply(this, arguments);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+});</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link://odoo扩展自定义函数的两种方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,6 +1781,30 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1971,7 +2124,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2053,6 +2206,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2065,51 +2263,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2148,6 +2301,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2444,13 +2603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2630,6 +2789,11 @@
       </c>
       <c r="C33" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A35" s="60" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2641,6 +2805,7 @@
     <hyperlink ref="C6" r:id="rId4"/>
     <hyperlink ref="C25" r:id="rId5"/>
     <hyperlink ref="A23" r:id="rId6"/>
+    <hyperlink ref="A35" location="Sheet2!A1" display="link://odoo扩展自定义函数的两种方法"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
@@ -3513,92 +3678,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="93.75" customHeight="1" thickBot="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>255</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="48"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="33"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="48"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="7" t="s">
         <v>263</v>
       </c>
@@ -3607,92 +3772,87 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="32"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="37"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="39"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="32"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="37"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="32"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="37"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C16"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:B8"/>
@@ -3708,6 +3868,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3719,7 +3884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -4614,7 +4779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -4895,4 +5060,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="89.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="105" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>